--- a/EXCEL/Fichero+práctico+-Trabajar+con+funciones+avanzadas.xlsx
+++ b/EXCEL/Fichero+práctico+-Trabajar+con+funciones+avanzadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MJDG1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0d6a1d237f24da9/Escritorio/Ejercicios/EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34059CA-F989-4CCC-BAC8-821DBD0DA00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Función SumaProducto" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -906,7 +906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1047,8 +1047,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2481,8 +2479,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2828,7 +2826,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="60" t="s">
         <v>159</v>
       </c>
       <c r="D12">
@@ -2861,7 +2859,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="60" t="s">
         <v>160</v>
       </c>
       <c r="D13">
@@ -2894,7 +2892,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="60" t="s">
         <v>161</v>
       </c>
       <c r="D14">
@@ -2996,7 +2994,7 @@
   </sheetPr>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -3074,7 +3072,7 @@
       </c>
       <c r="K2" s="4"/>
       <c r="L2" s="60">
-        <f ca="1">DATEDIF(E2,TODAY(),"y")</f>
+        <f t="shared" ref="L2:L15" ca="1" si="1">DATEDIF(E2,TODAY(),"y")</f>
         <v>19</v>
       </c>
       <c r="N2" s="52" t="s">
@@ -3083,7 +3081,7 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
-        <f t="shared" ref="A3:A15" si="1">MID(B3,5,3)</f>
+        <f t="shared" ref="A3:A15" si="2">MID(B3,5,3)</f>
         <v>002</v>
       </c>
       <c r="B3" s="52" t="s">
@@ -3110,13 +3108,13 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="60" t="str">
-        <f t="shared" ref="J3:J15" si="2" xml:space="preserve"> IF(H3&gt;=3000,"ok","revisar")</f>
+        <f t="shared" ref="J3:J15" si="3" xml:space="preserve"> IF(H3&gt;=3000,"ok","revisar")</f>
         <v>revisar</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="60">
-        <f ca="1">DATEDIF(E3,TODAY(),"y")</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
       </c>
       <c r="N3" s="52" t="s">
         <v>106</v>
@@ -3124,7 +3122,7 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>003</v>
       </c>
       <c r="B4" s="52" t="s">
@@ -3151,13 +3149,13 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="60">
-        <f ca="1">DATEDIF(E4,TODAY(),"y")</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="N4" s="52" t="s">
         <v>111</v>
@@ -3165,7 +3163,7 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>004</v>
       </c>
       <c r="B5" s="52" t="s">
@@ -3192,13 +3190,13 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="60">
-        <f ca="1">DATEDIF(E5,TODAY(),"y")</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="N5" s="52" t="s">
         <v>114</v>
@@ -3206,7 +3204,7 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>005</v>
       </c>
       <c r="B6" s="52" t="s">
@@ -3233,13 +3231,13 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>revisar</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="60">
-        <f ca="1">DATEDIF(E6,TODAY(),"y")</f>
-        <v>16</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
       </c>
       <c r="N6" s="52" t="s">
         <v>121</v>
@@ -3247,7 +3245,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>006</v>
       </c>
       <c r="B7" s="52" t="s">
@@ -3274,13 +3272,13 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
       <c r="K7" s="4"/>
       <c r="L7" s="60">
-        <f ca="1">DATEDIF(E7,TODAY(),"y")</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="N7" s="52" t="s">
         <v>124</v>
@@ -3288,7 +3286,7 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>007</v>
       </c>
       <c r="B8" s="52" t="s">
@@ -3315,18 +3313,18 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>revisar</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="60">
-        <f ca="1">DATEDIF(E8,TODAY(),"y")</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>008</v>
       </c>
       <c r="B9" s="52" t="s">
@@ -3353,18 +3351,18 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="60">
-        <f ca="1">DATEDIF(E9,TODAY(),"y")</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>009</v>
       </c>
       <c r="B10" s="52" t="s">
@@ -3391,18 +3389,18 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>revisar</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="60">
-        <f ca="1">DATEDIF(E10,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>010</v>
       </c>
       <c r="B11" s="52" t="s">
@@ -3429,18 +3427,18 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="60">
-        <f ca="1">DATEDIF(E11,TODAY(),"y")</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>011</v>
       </c>
       <c r="B12" s="52" t="s">
@@ -3467,18 +3465,18 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="60">
-        <f ca="1">DATEDIF(E12,TODAY(),"y")</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>012</v>
       </c>
       <c r="B13" s="52" t="s">
@@ -3505,18 +3503,18 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="60">
-        <f ca="1">DATEDIF(E13,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>013</v>
       </c>
       <c r="B14" s="52" t="s">
@@ -3543,18 +3541,18 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="60">
-        <f ca="1">DATEDIF(E14,TODAY(),"y")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>014</v>
       </c>
       <c r="B15" s="52" t="s">
@@ -3581,15 +3579,14 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>ok</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="60">
-        <f ca="1">DATEDIF(E15,TODAY(),"y")</f>
-        <v>8</v>
-      </c>
-      <c r="M15" s="70"/>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
